--- a/results/synthetic_constraint_0.1_opt_constrained/k=0.1/CSG/dataset_05/results_excel_13-9-22_synthetic_constrained_1_.xlsx
+++ b/results/synthetic_constraint_0.1_opt_constrained/k=0.1/CSG/dataset_05/results_excel_13-9-22_synthetic_constrained_1_.xlsx
@@ -1,20 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Konstantina\Desktop\HDrop20-Master-Thesis-Experiments\results\synthetic_constraint_0.1_opt_constrained\k=0.1\CSG\dataset_05\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFA59BD2-98D2-43AB-9A62-8897EC739F5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="60">
   <si>
     <t>dataset</t>
   </si>
@@ -182,13 +201,25 @@
   </si>
   <si>
     <t>Official_Experiment_CSG_dataset_05_instance_30_29_exec</t>
+  </si>
+  <si>
+    <t>Average of SW(S*)/SW(OPT)</t>
+  </si>
+  <si>
+    <t>Average of SC(S*)/SC(OPT)</t>
+  </si>
+  <si>
+    <t>Worst of SW(S*)/SW(OPT)</t>
+  </si>
+  <si>
+    <t>Worst of SC(S*)/SC(OPT)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,6 +233,15 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="161"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -240,22 +280,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Θέμα του Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -297,7 +348,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -329,9 +380,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -363,6 +432,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -538,14 +625,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Z37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:B37"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -622,7 +711,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -642,19 +731,19 @@
         <v>2</v>
       </c>
       <c r="G2">
-        <v>76.07776529414923</v>
+        <v>76.077765294149231</v>
       </c>
       <c r="H2">
-        <v>7.995441040410377</v>
+        <v>7.9954410404103768</v>
       </c>
       <c r="I2">
-        <v>68.08232425373885</v>
+        <v>68.082324253738847</v>
       </c>
       <c r="J2">
         <v>0.1</v>
       </c>
       <c r="K2">
-        <v>68.08232425373885</v>
+        <v>68.082324253738847</v>
       </c>
       <c r="L2">
         <v>2</v>
@@ -666,43 +755,43 @@
         <v>1</v>
       </c>
       <c r="O2">
-        <v>76.07776529414923</v>
+        <v>76.077765294149231</v>
       </c>
       <c r="P2">
-        <v>7.995441040410377</v>
+        <v>7.9954410404103768</v>
       </c>
       <c r="Q2">
         <v>2.252884535406904</v>
       </c>
       <c r="R2">
-        <v>50.06951878004062</v>
+        <v>50.069518780040617</v>
       </c>
       <c r="S2">
-        <v>9.515143055853795</v>
+        <v>9.5151430558537946</v>
       </c>
       <c r="T2">
-        <v>9.515143055853795</v>
+        <v>9.5151430558537946</v>
       </c>
       <c r="U2">
         <v>2.252884535406904</v>
       </c>
       <c r="V2">
-        <v>50.06951878004062</v>
+        <v>50.069518780040617</v>
       </c>
       <c r="W2">
-        <v>85.14091794912082</v>
+        <v>85.140917949120819</v>
       </c>
       <c r="X2">
-        <v>153.2232422028597</v>
+        <v>153.22324220285969</v>
       </c>
       <c r="Y2">
-        <v>85.14091794912082</v>
+        <v>85.140917949120819</v>
       </c>
       <c r="Z2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -728,7 +817,7 @@
         <v>14.02702464184723</v>
       </c>
       <c r="I3">
-        <v>46.15047020119366</v>
+        <v>46.150470201193663</v>
       </c>
       <c r="J3">
         <v>0.1</v>
@@ -743,7 +832,7 @@
         <v>0.1</v>
       </c>
       <c r="N3">
-        <v>0.9999999999999999</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="O3">
         <v>60.17749484304089</v>
@@ -752,37 +841,37 @@
         <v>14.02702464184723</v>
       </c>
       <c r="Q3">
-        <v>1.456312642122724</v>
+        <v>1.4563126421227239</v>
       </c>
       <c r="R3">
         <v>25.72273688390457</v>
       </c>
       <c r="S3">
-        <v>4.290111151834127</v>
+        <v>4.2901111518341271</v>
       </c>
       <c r="T3">
-        <v>4.290111151834127</v>
+        <v>4.2901111518341271</v>
       </c>
       <c r="U3">
-        <v>1.456312642122724</v>
+        <v>1.4563126421227239</v>
       </c>
       <c r="V3">
         <v>25.72273688390457</v>
       </c>
       <c r="W3">
-        <v>53.03434585245282</v>
+        <v>53.034345852452823</v>
       </c>
       <c r="X3">
-        <v>99.18481605364649</v>
+        <v>99.184816053646486</v>
       </c>
       <c r="Y3">
-        <v>53.03434585245282</v>
+        <v>53.034345852452823</v>
       </c>
       <c r="Z3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -805,16 +894,16 @@
         <v>64.95091210640841</v>
       </c>
       <c r="H4">
-        <v>13.60863192487301</v>
+        <v>13.608631924873009</v>
       </c>
       <c r="I4">
-        <v>51.34228018153539</v>
+        <v>51.342280181535394</v>
       </c>
       <c r="J4">
         <v>0.1</v>
       </c>
       <c r="K4">
-        <v>51.34228018153539</v>
+        <v>51.342280181535394</v>
       </c>
       <c r="L4">
         <v>2</v>
@@ -829,40 +918,40 @@
         <v>64.95091210640841</v>
       </c>
       <c r="P4">
-        <v>13.60863192487301</v>
+        <v>13.608631924873009</v>
       </c>
       <c r="Q4">
         <v>1.562927494463523</v>
       </c>
       <c r="R4">
-        <v>30.0729751841173</v>
+        <v>30.072975184117301</v>
       </c>
       <c r="S4">
-        <v>4.772773079981328</v>
+        <v>4.7727730799813282</v>
       </c>
       <c r="T4">
-        <v>4.772773079981328</v>
+        <v>4.7727730799813282</v>
       </c>
       <c r="U4">
         <v>1.562927494463523</v>
       </c>
       <c r="V4">
-        <v>30.0729751841173</v>
+        <v>30.072975184117301</v>
       </c>
       <c r="W4">
-        <v>58.75854721961661</v>
+        <v>58.758547219616609</v>
       </c>
       <c r="X4">
         <v>110.100827401152</v>
       </c>
       <c r="Y4">
-        <v>58.75854721961661</v>
+        <v>58.758547219616609</v>
       </c>
       <c r="Z4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -882,19 +971,19 @@
         <v>2</v>
       </c>
       <c r="G5">
-        <v>51.6781660733191</v>
+        <v>51.678166073319098</v>
       </c>
       <c r="H5">
-        <v>7.303254440574898</v>
+        <v>7.3032544405748983</v>
       </c>
       <c r="I5">
-        <v>44.37491163274421</v>
+        <v>44.374911632744208</v>
       </c>
       <c r="J5">
         <v>0.1</v>
       </c>
       <c r="K5">
-        <v>49.78704897452391</v>
+        <v>49.787048974523913</v>
       </c>
       <c r="L5">
         <v>2</v>
@@ -903,46 +992,46 @@
         <v>0.1</v>
       </c>
       <c r="N5">
-        <v>0.8912942732446524</v>
+        <v>0.89129427324465238</v>
       </c>
       <c r="O5">
-        <v>64.41199154088162</v>
+        <v>64.411991540881615</v>
       </c>
       <c r="P5">
         <v>14.62494256635771</v>
       </c>
       <c r="Q5">
-        <v>1.482571353803885</v>
+        <v>1.4825713538038849</v>
       </c>
       <c r="R5">
         <v>28.10452807461489</v>
       </c>
       <c r="S5">
-        <v>4.404256033733143</v>
+        <v>4.4042560337331427</v>
       </c>
       <c r="T5">
-        <v>7.076046233061421</v>
+        <v>7.0760462330614207</v>
       </c>
       <c r="U5">
-        <v>1.956715310061019</v>
+        <v>1.9567153100610191</v>
       </c>
       <c r="V5">
         <v>30.08452185560019</v>
       </c>
       <c r="W5">
-        <v>45.1660698554987</v>
+        <v>45.166069855498698</v>
       </c>
       <c r="X5">
-        <v>89.54098148824291</v>
+        <v>89.540981488242906</v>
       </c>
       <c r="Y5">
-        <v>39.75393251371899</v>
+        <v>39.753932513718993</v>
       </c>
       <c r="Z5">
-        <v>1.136140929954841</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26">
+        <v>1.1361409299548411</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -962,19 +1051,19 @@
         <v>2</v>
       </c>
       <c r="G6">
-        <v>54.67540853330651</v>
+        <v>54.675408533306509</v>
       </c>
       <c r="H6">
         <v>12.92865796346784</v>
       </c>
       <c r="I6">
-        <v>41.74675056983867</v>
+        <v>41.746750569838667</v>
       </c>
       <c r="J6">
         <v>0.1</v>
       </c>
       <c r="K6">
-        <v>43.06766878017414</v>
+        <v>43.067668780174138</v>
       </c>
       <c r="L6">
         <v>2</v>
@@ -983,22 +1072,22 @@
         <v>0.1</v>
       </c>
       <c r="N6">
-        <v>0.969329238202381</v>
+        <v>0.96932923820238104</v>
       </c>
       <c r="O6">
-        <v>57.12135520516111</v>
+        <v>57.121355205161109</v>
       </c>
       <c r="P6">
-        <v>14.05368642498697</v>
+        <v>14.053686424986971</v>
       </c>
       <c r="Q6">
-        <v>1.402293302963398</v>
+        <v>1.4022933029633979</v>
       </c>
       <c r="R6">
-        <v>23.36027842446729</v>
+        <v>23.360278424467289</v>
       </c>
       <c r="S6">
-        <v>4.064510440733991</v>
+        <v>4.0645104407339909</v>
       </c>
       <c r="T6">
         <v>4.229008818069234</v>
@@ -1007,22 +1096,22 @@
         <v>1.441967643631056</v>
       </c>
       <c r="V6">
-        <v>23.10404411094506</v>
+        <v>23.104044110945061</v>
       </c>
       <c r="W6">
-        <v>50.84271060242776</v>
+        <v>50.842710602427758</v>
       </c>
       <c r="X6">
-        <v>92.58946117226643</v>
+        <v>92.589461172266425</v>
       </c>
       <c r="Y6">
-        <v>49.52179239209229</v>
+        <v>49.521792392092287</v>
       </c>
       <c r="Z6">
-        <v>1.026673473364554</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26">
+        <v>1.0266734733645539</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1042,19 +1131,19 @@
         <v>2</v>
       </c>
       <c r="G7">
-        <v>62.09671927395502</v>
+        <v>62.096719273955017</v>
       </c>
       <c r="H7">
-        <v>5.102416452669566</v>
+        <v>5.1024164526695657</v>
       </c>
       <c r="I7">
-        <v>56.99430282128545</v>
+        <v>56.994302821285451</v>
       </c>
       <c r="J7">
         <v>0.1</v>
       </c>
       <c r="K7">
-        <v>56.99430282128545</v>
+        <v>56.994302821285451</v>
       </c>
       <c r="L7">
         <v>2</v>
@@ -1066,16 +1155,16 @@
         <v>1</v>
       </c>
       <c r="O7">
-        <v>62.09671927395502</v>
+        <v>62.096719273955017</v>
       </c>
       <c r="P7">
-        <v>5.102416452669566</v>
+        <v>5.1024164526695657</v>
       </c>
       <c r="Q7">
-        <v>2.498978916052234</v>
+        <v>2.4989789160522342</v>
       </c>
       <c r="R7">
-        <v>44.24347168514618</v>
+        <v>44.243471685146183</v>
       </c>
       <c r="S7">
         <v>12.17006096032523</v>
@@ -1084,16 +1173,16 @@
         <v>12.17006096032523</v>
       </c>
       <c r="U7">
-        <v>2.498978916052234</v>
+        <v>2.4989789160522342</v>
       </c>
       <c r="V7">
-        <v>44.24347168514618</v>
+        <v>44.243471685146183</v>
       </c>
       <c r="W7">
         <v>29.98176083139742</v>
       </c>
       <c r="X7">
-        <v>86.97606365268287</v>
+        <v>86.976063652682868</v>
       </c>
       <c r="Y7">
         <v>29.98176083139742</v>
@@ -1102,7 +1191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1122,19 +1211,19 @@
         <v>2</v>
       </c>
       <c r="G8">
-        <v>59.16688374889267</v>
+        <v>59.166883748892673</v>
       </c>
       <c r="H8">
-        <v>7.782616613723224</v>
+        <v>7.7826166137232242</v>
       </c>
       <c r="I8">
-        <v>51.38426713516945</v>
+        <v>51.384267135169452</v>
       </c>
       <c r="J8">
         <v>0.1</v>
       </c>
       <c r="K8">
-        <v>55.00559936906357</v>
+        <v>55.005599369063567</v>
       </c>
       <c r="L8">
         <v>2</v>
@@ -1143,46 +1232,46 @@
         <v>0.1</v>
       </c>
       <c r="N8">
-        <v>0.9341642982635902</v>
+        <v>0.93416429826359015</v>
       </c>
       <c r="O8">
-        <v>62.13379920424181</v>
+        <v>62.133799204241811</v>
       </c>
       <c r="P8">
-        <v>7.128199835178229</v>
+        <v>7.1281998351782292</v>
       </c>
       <c r="Q8">
-        <v>2.165231386463843</v>
+        <v>2.1652313864638431</v>
       </c>
       <c r="R8">
-        <v>39.57139735694929</v>
+        <v>39.571397356949291</v>
       </c>
       <c r="S8">
-        <v>8.71661859107914</v>
+        <v>8.7166185910791398</v>
       </c>
       <c r="T8">
-        <v>7.602441015090307</v>
+        <v>7.6024410150903066</v>
       </c>
       <c r="U8">
         <v>2.028469381919134</v>
       </c>
       <c r="V8">
-        <v>35.59746762301672</v>
+        <v>35.597467623016719</v>
       </c>
       <c r="W8">
-        <v>39.8757854197719</v>
+        <v>39.875785419771901</v>
       </c>
       <c r="X8">
-        <v>91.26005255494135</v>
+        <v>91.260052554941353</v>
       </c>
       <c r="Y8">
-        <v>36.25445318587778</v>
+        <v>36.254453185877779</v>
       </c>
       <c r="Z8">
         <v>1.099886549531651</v>
       </c>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1202,19 +1291,19 @@
         <v>2</v>
       </c>
       <c r="G9">
-        <v>73.45652613579065</v>
+        <v>73.456526135790654</v>
       </c>
       <c r="H9">
-        <v>12.24184858426232</v>
+        <v>12.241848584262319</v>
       </c>
       <c r="I9">
-        <v>61.21467755152833</v>
+        <v>61.214677551528332</v>
       </c>
       <c r="J9">
         <v>0.1</v>
       </c>
       <c r="K9">
-        <v>61.21467755152834</v>
+        <v>61.214677551528339</v>
       </c>
       <c r="L9">
         <v>2</v>
@@ -1223,46 +1312,46 @@
         <v>0.1</v>
       </c>
       <c r="N9">
-        <v>0.9999999999999998</v>
+        <v>0.99999999999999978</v>
       </c>
       <c r="O9">
-        <v>73.45652613579065</v>
+        <v>73.456526135790654</v>
       </c>
       <c r="P9">
-        <v>12.24184858426232</v>
+        <v>12.241848584262319</v>
       </c>
       <c r="Q9">
         <v>1.791833456272518</v>
       </c>
       <c r="R9">
-        <v>39.27932369162473</v>
+        <v>39.279323691624732</v>
       </c>
       <c r="S9">
-        <v>6.000443938689431</v>
+        <v>6.0004439386894308</v>
       </c>
       <c r="T9">
-        <v>6.000443938689431</v>
+        <v>6.0004439386894308</v>
       </c>
       <c r="U9">
         <v>1.791833456272518</v>
       </c>
       <c r="V9">
-        <v>39.27932369162473</v>
+        <v>39.279323691624732</v>
       </c>
       <c r="W9">
-        <v>44.70109511301585</v>
+        <v>44.701095113015853</v>
       </c>
       <c r="X9">
-        <v>105.9157726645442</v>
+        <v>105.91577266454421</v>
       </c>
       <c r="Y9">
-        <v>44.70109511301584</v>
+        <v>44.701095113015839</v>
       </c>
       <c r="Z9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1282,19 +1371,19 @@
         <v>2</v>
       </c>
       <c r="G10">
-        <v>62.61644385685607</v>
+        <v>62.616443856856073</v>
       </c>
       <c r="H10">
         <v>4.458256862345328</v>
       </c>
       <c r="I10">
-        <v>58.15818699451074</v>
+        <v>58.158186994510743</v>
       </c>
       <c r="J10">
         <v>0.1</v>
       </c>
       <c r="K10">
-        <v>58.38361853582209</v>
+        <v>58.383618535822087</v>
       </c>
       <c r="L10">
         <v>2</v>
@@ -1303,46 +1392,46 @@
         <v>0.1</v>
       </c>
       <c r="N10">
-        <v>0.9961387877804622</v>
+        <v>0.99613878778046216</v>
       </c>
       <c r="O10">
-        <v>68.55325028934591</v>
+        <v>68.553250289345911</v>
       </c>
       <c r="P10">
-        <v>10.16963175352383</v>
+        <v>10.169631753523831</v>
       </c>
       <c r="Q10">
-        <v>1.908204819442514</v>
+        <v>1.9082048194425141</v>
       </c>
       <c r="R10">
-        <v>38.97787821179229</v>
+        <v>38.977878211792287</v>
       </c>
       <c r="S10">
-        <v>6.740976659807948</v>
+        <v>6.7409766598079477</v>
       </c>
       <c r="T10">
-        <v>14.04505074297487</v>
+        <v>14.045050742974871</v>
       </c>
       <c r="U10">
-        <v>2.64227007343504</v>
+        <v>2.6422700734350402</v>
       </c>
       <c r="V10">
-        <v>46.37826830744928</v>
+        <v>46.378268307449282</v>
       </c>
       <c r="W10">
-        <v>61.49272895574708</v>
+        <v>61.492728955747083</v>
       </c>
       <c r="X10">
         <v>119.6509159502578</v>
       </c>
       <c r="Y10">
-        <v>61.26729741443572</v>
+        <v>61.267297414435717</v>
       </c>
       <c r="Z10">
         <v>1.003679475851309</v>
       </c>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1362,13 +1451,13 @@
         <v>2</v>
       </c>
       <c r="G11">
-        <v>68.71734561407962</v>
+        <v>68.717345614079619</v>
       </c>
       <c r="H11">
         <v>14.04999440570371</v>
       </c>
       <c r="I11">
-        <v>54.66735120837591</v>
+        <v>54.667351208375912</v>
       </c>
       <c r="J11">
         <v>0.1</v>
@@ -1383,46 +1472,46 @@
         <v>0.1</v>
       </c>
       <c r="N11">
-        <v>0.9007995960987292</v>
+        <v>0.90079959609872917</v>
       </c>
       <c r="O11">
-        <v>77.80095172340448</v>
+        <v>77.800951723404481</v>
       </c>
       <c r="P11">
-        <v>17.11336766460317</v>
+        <v>17.113367664603171</v>
       </c>
       <c r="Q11">
         <v>1.514293771172917</v>
       </c>
       <c r="R11">
-        <v>34.77291800050072</v>
+        <v>34.772918000500717</v>
       </c>
       <c r="S11">
-        <v>4.546209328765015</v>
+        <v>4.5462093287650154</v>
       </c>
       <c r="T11">
-        <v>4.890916226001004</v>
+        <v>4.8909162260010044</v>
       </c>
       <c r="U11">
-        <v>1.587379653216093</v>
+        <v>1.5873796532160931</v>
       </c>
       <c r="V11">
-        <v>32.3646759609619</v>
+        <v>32.364675960961897</v>
       </c>
       <c r="W11">
-        <v>57.45920477992132</v>
+        <v>57.459204779921322</v>
       </c>
       <c r="X11">
         <v>112.1265559882972</v>
       </c>
       <c r="Y11">
-        <v>51.43897192949591</v>
+        <v>51.438971929495906</v>
       </c>
       <c r="Z11">
-        <v>1.117036414698897</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26">
+        <v>1.1170364146988969</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1442,19 +1531,19 @@
         <v>2</v>
       </c>
       <c r="G12">
-        <v>69.63049752434864</v>
+        <v>69.630497524348641</v>
       </c>
       <c r="H12">
-        <v>14.41373031436281</v>
+        <v>14.413730314362811</v>
       </c>
       <c r="I12">
-        <v>55.21676720998583</v>
+        <v>55.216767209985832</v>
       </c>
       <c r="J12">
         <v>0.1</v>
       </c>
       <c r="K12">
-        <v>60.15276209380947</v>
+        <v>60.152762093809471</v>
       </c>
       <c r="L12">
         <v>2</v>
@@ -1463,46 +1552,46 @@
         <v>0.1</v>
       </c>
       <c r="N12">
-        <v>0.9179423402681683</v>
+        <v>0.91794234026816834</v>
       </c>
       <c r="O12">
         <v>85.95851313091157</v>
       </c>
       <c r="P12">
-        <v>25.8057510371021</v>
+        <v>25.805751037102102</v>
       </c>
       <c r="Q12">
         <v>1.203267398902053</v>
       </c>
       <c r="R12">
-        <v>29.10154316668167</v>
+        <v>29.101543166681669</v>
       </c>
       <c r="S12">
-        <v>3.33098281105344</v>
+        <v>3.3309828110534401</v>
       </c>
       <c r="T12">
-        <v>4.830845034956991</v>
+        <v>4.8308450349569911</v>
       </c>
       <c r="U12">
         <v>1.575021407839194</v>
       </c>
       <c r="V12">
-        <v>32.51483339804365</v>
+        <v>32.514833398043649</v>
       </c>
       <c r="W12">
-        <v>41.87505912238363</v>
+        <v>41.875059122383632</v>
       </c>
       <c r="X12">
-        <v>97.09182633236946</v>
+        <v>97.091826332369465</v>
       </c>
       <c r="Y12">
-        <v>36.93906423855999</v>
+        <v>36.939064238559993</v>
       </c>
       <c r="Z12">
         <v>1.133625336363314</v>
       </c>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1522,19 +1611,19 @@
         <v>2</v>
       </c>
       <c r="G13">
-        <v>116.0679517772487</v>
+        <v>116.06795177724869</v>
       </c>
       <c r="H13">
-        <v>20.8755495946653</v>
+        <v>20.875549594665301</v>
       </c>
       <c r="I13">
-        <v>95.19240218258335</v>
+        <v>95.192402182583351</v>
       </c>
       <c r="J13">
         <v>0.1</v>
       </c>
       <c r="K13">
-        <v>95.19240218258335</v>
+        <v>95.192402182583351</v>
       </c>
       <c r="L13">
         <v>2</v>
@@ -1546,43 +1635,43 @@
         <v>1</v>
       </c>
       <c r="O13">
-        <v>116.0679517772487</v>
+        <v>116.06795177724869</v>
       </c>
       <c r="P13">
-        <v>20.8755495946653</v>
+        <v>20.875549594665301</v>
       </c>
       <c r="Q13">
-        <v>1.715597212502359</v>
+        <v>1.7155972125023591</v>
       </c>
       <c r="R13">
-        <v>59.37836748852082</v>
+        <v>59.378367488520823</v>
       </c>
       <c r="S13">
-        <v>5.559995019575894</v>
+        <v>5.5599950195758936</v>
       </c>
       <c r="T13">
-        <v>5.559995019575894</v>
+        <v>5.5599950195758936</v>
       </c>
       <c r="U13">
-        <v>1.715597212502359</v>
+        <v>1.7155972125023591</v>
       </c>
       <c r="V13">
-        <v>59.37836748852082</v>
+        <v>59.378367488520823</v>
       </c>
       <c r="W13">
-        <v>32.28214799108407</v>
+        <v>32.282147991084067</v>
       </c>
       <c r="X13">
         <v>127.4745501736674</v>
       </c>
       <c r="Y13">
-        <v>32.28214799108407</v>
+        <v>32.282147991084067</v>
       </c>
       <c r="Z13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1602,19 +1691,19 @@
         <v>2</v>
       </c>
       <c r="G14">
-        <v>75.18083703950195</v>
+        <v>75.180837039501952</v>
       </c>
       <c r="H14">
         <v>13.86477026776244</v>
       </c>
       <c r="I14">
-        <v>61.31606677173951</v>
+        <v>61.316066771739507</v>
       </c>
       <c r="J14">
         <v>0.1</v>
       </c>
       <c r="K14">
-        <v>61.31606677173951</v>
+        <v>61.316066771739507</v>
       </c>
       <c r="L14">
         <v>2</v>
@@ -1626,7 +1715,7 @@
         <v>1</v>
       </c>
       <c r="O14">
-        <v>75.18083703950195</v>
+        <v>75.180837039501952</v>
       </c>
       <c r="P14">
         <v>13.86477026776244</v>
@@ -1635,34 +1724,34 @@
         <v>1.690545262169304</v>
       </c>
       <c r="R14">
-        <v>37.8770450845079</v>
+        <v>37.877045084507898</v>
       </c>
       <c r="S14">
-        <v>5.422436548718595</v>
+        <v>5.4224365487185953</v>
       </c>
       <c r="T14">
-        <v>5.422436548718595</v>
+        <v>5.4224365487185953</v>
       </c>
       <c r="U14">
         <v>1.690545262169304</v>
       </c>
       <c r="V14">
-        <v>37.8770450845079</v>
+        <v>37.877045084507898</v>
       </c>
       <c r="W14">
-        <v>34.7423576744191</v>
+        <v>34.742357674419097</v>
       </c>
       <c r="X14">
-        <v>96.05842444615861</v>
+        <v>96.058424446158611</v>
       </c>
       <c r="Y14">
-        <v>34.7423576744191</v>
+        <v>34.742357674419097</v>
       </c>
       <c r="Z14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1688,13 +1777,13 @@
         <v>15.13062871831667</v>
       </c>
       <c r="I15">
-        <v>66.09247471856145</v>
+        <v>66.092474718561448</v>
       </c>
       <c r="J15">
         <v>0.1</v>
       </c>
       <c r="K15">
-        <v>66.09247471856145</v>
+        <v>66.092474718561448</v>
       </c>
       <c r="L15">
         <v>2</v>
@@ -1715,34 +1804,34 @@
         <v>1.680478650429678</v>
       </c>
       <c r="R15">
-        <v>40.66577618985212</v>
+        <v>40.665776189852117</v>
       </c>
       <c r="S15">
-        <v>5.368124811532249</v>
+        <v>5.3681248115322493</v>
       </c>
       <c r="T15">
-        <v>5.368124811532249</v>
+        <v>5.3681248115322493</v>
       </c>
       <c r="U15">
         <v>1.680478650429678</v>
       </c>
       <c r="V15">
-        <v>40.66577618985212</v>
+        <v>40.665776189852117</v>
       </c>
       <c r="W15">
-        <v>29.93391848741283</v>
+        <v>29.933918487412829</v>
       </c>
       <c r="X15">
-        <v>96.02639320597427</v>
+        <v>96.026393205974273</v>
       </c>
       <c r="Y15">
-        <v>29.93391848741283</v>
+        <v>29.933918487412829</v>
       </c>
       <c r="Z15">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1762,19 +1851,19 @@
         <v>2</v>
       </c>
       <c r="G16">
-        <v>86.75536753741616</v>
+        <v>86.755367537416163</v>
       </c>
       <c r="H16">
         <v>13.37271961686173</v>
       </c>
       <c r="I16">
-        <v>73.38264792055443</v>
+        <v>73.382647920554433</v>
       </c>
       <c r="J16">
         <v>0.1</v>
       </c>
       <c r="K16">
-        <v>73.38264792055443</v>
+        <v>73.382647920554433</v>
       </c>
       <c r="L16">
         <v>2</v>
@@ -1786,43 +1875,43 @@
         <v>1</v>
       </c>
       <c r="O16">
-        <v>86.75536753741616</v>
+        <v>86.755367537416163</v>
       </c>
       <c r="P16">
         <v>13.37271961686173</v>
       </c>
       <c r="Q16">
-        <v>1.869875508232618</v>
+        <v>1.8698755082326179</v>
       </c>
       <c r="R16">
-        <v>48.37732703052281</v>
+        <v>48.377327030522807</v>
       </c>
       <c r="S16">
-        <v>6.487488710077034</v>
+        <v>6.4874887100770344</v>
       </c>
       <c r="T16">
-        <v>6.487488710077034</v>
+        <v>6.4874887100770344</v>
       </c>
       <c r="U16">
-        <v>1.869875508232618</v>
+        <v>1.8698755082326179</v>
       </c>
       <c r="V16">
-        <v>48.37732703052281</v>
+        <v>48.377327030522807</v>
       </c>
       <c r="W16">
-        <v>40.39869508175219</v>
+        <v>40.398695081752187</v>
       </c>
       <c r="X16">
         <v>113.7813430023066</v>
       </c>
       <c r="Y16">
-        <v>40.39869508175219</v>
+        <v>40.398695081752187</v>
       </c>
       <c r="Z16">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:26">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1842,13 +1931,13 @@
         <v>2</v>
       </c>
       <c r="G17">
-        <v>81.10246617235975</v>
+        <v>81.102466172359755</v>
       </c>
       <c r="H17">
-        <v>9.930477145672272</v>
+        <v>9.9304771456722722</v>
       </c>
       <c r="I17">
-        <v>71.17198902668748</v>
+        <v>71.171989026687484</v>
       </c>
       <c r="J17">
         <v>0.1</v>
@@ -1866,16 +1955,16 @@
         <v>1</v>
       </c>
       <c r="O17">
-        <v>81.10246617235975</v>
+        <v>81.102466172359755</v>
       </c>
       <c r="P17">
-        <v>9.930477145672272</v>
+        <v>9.9304771456722722</v>
       </c>
       <c r="Q17">
         <v>2.100104841862986</v>
       </c>
       <c r="R17">
-        <v>50.31694589105142</v>
+        <v>50.316945891051418</v>
       </c>
       <c r="S17">
         <v>8.167026113916835</v>
@@ -1887,22 +1976,22 @@
         <v>2.100104841862986</v>
       </c>
       <c r="V17">
-        <v>50.31694589105142</v>
+        <v>50.316945891051418</v>
       </c>
       <c r="W17">
-        <v>31.94220755101148</v>
+        <v>31.942207551011482</v>
       </c>
       <c r="X17">
         <v>103.114196577699</v>
       </c>
       <c r="Y17">
-        <v>31.94220755101149</v>
+        <v>31.942207551011489</v>
       </c>
       <c r="Z17">
-        <v>0.9999999999999996</v>
-      </c>
-    </row>
-    <row r="18" spans="1:26">
+        <v>0.99999999999999956</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1922,19 +2011,19 @@
         <v>2</v>
       </c>
       <c r="G18">
-        <v>80.71015725556808</v>
+        <v>80.710157255568078</v>
       </c>
       <c r="H18">
-        <v>8.100050628191457</v>
+        <v>8.1000506281914575</v>
       </c>
       <c r="I18">
-        <v>72.61010662737662</v>
+        <v>72.610106627376624</v>
       </c>
       <c r="J18">
         <v>0.1</v>
       </c>
       <c r="K18">
-        <v>72.61010662737661</v>
+        <v>72.610106627376609</v>
       </c>
       <c r="L18">
         <v>2</v>
@@ -1946,43 +2035,43 @@
         <v>1</v>
       </c>
       <c r="O18">
-        <v>80.71015725556808</v>
+        <v>80.710157255568078</v>
       </c>
       <c r="P18">
-        <v>8.100050628191457</v>
+        <v>8.1000506281914575</v>
       </c>
       <c r="Q18">
-        <v>2.298994119684045</v>
+        <v>2.2989941196840449</v>
       </c>
       <c r="R18">
-        <v>53.98813786402141</v>
+        <v>53.988137864021411</v>
       </c>
       <c r="S18">
-        <v>9.964154665239256</v>
+        <v>9.9641546652392563</v>
       </c>
       <c r="T18">
-        <v>9.964154665239256</v>
+        <v>9.9641546652392563</v>
       </c>
       <c r="U18">
-        <v>2.298994119684045</v>
+        <v>2.2989941196840449</v>
       </c>
       <c r="V18">
-        <v>53.98813786402141</v>
+        <v>53.988137864021411</v>
       </c>
       <c r="W18">
-        <v>29.6627985695969</v>
+        <v>29.662798569596902</v>
       </c>
       <c r="X18">
         <v>102.2729051969735</v>
       </c>
       <c r="Y18">
-        <v>29.66279856959692</v>
+        <v>29.662798569596919</v>
       </c>
       <c r="Z18">
-        <v>0.9999999999999996</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26">
+        <v>0.99999999999999956</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2002,19 +2091,19 @@
         <v>2</v>
       </c>
       <c r="G19">
-        <v>67.36301241202771</v>
+        <v>67.363012412027715</v>
       </c>
       <c r="H19">
-        <v>8.437315671093868</v>
+        <v>8.4373156710938684</v>
       </c>
       <c r="I19">
-        <v>58.92569674093384</v>
+        <v>58.925696740933837</v>
       </c>
       <c r="J19">
         <v>0.1</v>
       </c>
       <c r="K19">
-        <v>65.34547473550646</v>
+        <v>65.345474735506457</v>
       </c>
       <c r="L19">
         <v>2</v>
@@ -2023,34 +2112,34 @@
         <v>0.1</v>
       </c>
       <c r="N19">
-        <v>0.9017563493025734</v>
+        <v>0.90175634930257342</v>
       </c>
       <c r="O19">
         <v>114.2126574186363</v>
       </c>
       <c r="P19">
-        <v>48.86718268312983</v>
+        <v>48.867182683129833</v>
       </c>
       <c r="Q19">
-        <v>0.8489560662090826</v>
+        <v>0.84895606620908259</v>
       </c>
       <c r="R19">
-        <v>23.85938355811595</v>
+        <v>23.859383558115951</v>
       </c>
       <c r="S19">
-        <v>2.33720568994589</v>
+        <v>2.3372056899458902</v>
       </c>
       <c r="T19">
         <v>7.983938854251063</v>
       </c>
       <c r="U19">
-        <v>2.077431880444148</v>
+        <v>2.0774318804441481</v>
       </c>
       <c r="V19">
         <v>41.39774818043243</v>
       </c>
       <c r="W19">
-        <v>67.4870007410678</v>
+        <v>67.487000741067803</v>
       </c>
       <c r="X19">
         <v>126.4126974820016</v>
@@ -2062,7 +2151,7 @@
         <v>1.105126411614012</v>
       </c>
     </row>
-    <row r="20" spans="1:26">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2082,19 +2171,19 @@
         <v>2</v>
       </c>
       <c r="G20">
-        <v>57.6556815005405</v>
+        <v>57.655681500540503</v>
       </c>
       <c r="H20">
-        <v>7.654913212804116</v>
+        <v>7.6549132128041162</v>
       </c>
       <c r="I20">
-        <v>50.00076828773638</v>
+        <v>50.000768287736378</v>
       </c>
       <c r="J20">
         <v>0.1</v>
       </c>
       <c r="K20">
-        <v>57.11298707793546</v>
+        <v>57.112987077935458</v>
       </c>
       <c r="L20">
         <v>2</v>
@@ -2103,46 +2192,46 @@
         <v>0.1</v>
       </c>
       <c r="N20">
-        <v>0.8754710766485763</v>
+        <v>0.87547107664857626</v>
       </c>
       <c r="O20">
-        <v>73.74708463600315</v>
+        <v>73.747084636003152</v>
       </c>
       <c r="P20">
-        <v>16.6340975580677</v>
+        <v>16.634097558067701</v>
       </c>
       <c r="Q20">
-        <v>1.489186805670586</v>
+        <v>1.4891868056705859</v>
       </c>
       <c r="R20">
-        <v>32.34170847022371</v>
+        <v>32.341708470223708</v>
       </c>
       <c r="S20">
-        <v>4.43348876478334</v>
+        <v>4.4334887647833403</v>
       </c>
       <c r="T20">
-        <v>7.531853059300761</v>
+        <v>7.5318530593007607</v>
       </c>
       <c r="U20">
         <v>2.019141101749157</v>
       </c>
       <c r="V20">
-        <v>34.54441838944089</v>
+        <v>34.544418389440892</v>
       </c>
       <c r="W20">
-        <v>54.19628566167668</v>
+        <v>54.196285661676683</v>
       </c>
       <c r="X20">
         <v>104.1970539494131</v>
       </c>
       <c r="Y20">
-        <v>47.0840668714776</v>
+        <v>47.084066871477603</v>
       </c>
       <c r="Z20">
-        <v>1.15105362095447</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26">
+        <v>1.1510536209544699</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2162,19 +2251,19 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>49.70154957850119</v>
+        <v>49.701549578501186</v>
       </c>
       <c r="H21">
-        <v>10.13981106618306</v>
+        <v>10.139811066183061</v>
       </c>
       <c r="I21">
-        <v>39.56173851231813</v>
+        <v>39.561738512318129</v>
       </c>
       <c r="J21">
         <v>0.05</v>
       </c>
       <c r="K21">
-        <v>49.61103664277805</v>
+        <v>49.611036642778053</v>
       </c>
       <c r="L21">
         <v>2</v>
@@ -2183,25 +2272,25 @@
         <v>0.1</v>
       </c>
       <c r="N21">
-        <v>0.7974382554668346</v>
+        <v>0.79743825546683456</v>
       </c>
       <c r="O21">
-        <v>61.98964514603784</v>
+        <v>61.989645146037837</v>
       </c>
       <c r="P21">
         <v>12.3786085032598</v>
       </c>
       <c r="Q21">
-        <v>1.610997495151303</v>
+        <v>1.6109974951513031</v>
       </c>
       <c r="R21">
-        <v>29.66912935056789</v>
+        <v>29.669129350567889</v>
       </c>
       <c r="S21">
-        <v>5.007803997494015</v>
+        <v>5.0078039974940154</v>
       </c>
       <c r="T21">
-        <v>4.901624818657531</v>
+        <v>4.9016248186575311</v>
       </c>
       <c r="U21">
         <v>1.58956674579529</v>
@@ -2210,19 +2299,19 @@
         <v>23.44383203286645</v>
       </c>
       <c r="W21">
-        <v>37.24640039750231</v>
+        <v>37.246400397502313</v>
       </c>
       <c r="X21">
-        <v>76.80813890982044</v>
+        <v>76.808138909820443</v>
       </c>
       <c r="Y21">
         <v>27.1971022670424</v>
       </c>
       <c r="Z21">
-        <v>1.369498854392209</v>
-      </c>
-    </row>
-    <row r="22" spans="1:26">
+        <v>1.3694988543922091</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2242,19 +2331,19 @@
         <v>2</v>
       </c>
       <c r="G22">
-        <v>49.58141481739362</v>
+        <v>49.581414817393622</v>
       </c>
       <c r="H22">
-        <v>9.454584651462969</v>
+        <v>9.4545846514629694</v>
       </c>
       <c r="I22">
-        <v>40.12683016593066</v>
+        <v>40.126830165930663</v>
       </c>
       <c r="J22">
         <v>0.1</v>
       </c>
       <c r="K22">
-        <v>40.12683016593066</v>
+        <v>40.126830165930663</v>
       </c>
       <c r="L22">
         <v>2</v>
@@ -2266,43 +2355,43 @@
         <v>1</v>
       </c>
       <c r="O22">
-        <v>49.58141481739362</v>
+        <v>49.581414817393622</v>
       </c>
       <c r="P22">
-        <v>9.454584651462969</v>
+        <v>9.4545846514629694</v>
       </c>
       <c r="Q22">
-        <v>1.657116290088375</v>
+        <v>1.6571162900883749</v>
       </c>
       <c r="R22">
-        <v>24.45948392397185</v>
+        <v>24.459483923971849</v>
       </c>
       <c r="S22">
-        <v>5.244166364275089</v>
+        <v>5.2441663642750891</v>
       </c>
       <c r="T22">
-        <v>5.244166364275089</v>
+        <v>5.2441663642750891</v>
       </c>
       <c r="U22">
-        <v>1.657116290088375</v>
+        <v>1.6571162900883749</v>
       </c>
       <c r="V22">
-        <v>24.45948392397185</v>
+        <v>24.459483923971849</v>
       </c>
       <c r="W22">
-        <v>44.06161593568896</v>
+        <v>44.061615935688963</v>
       </c>
       <c r="X22">
-        <v>84.18844610161962</v>
+        <v>84.188446101619618</v>
       </c>
       <c r="Y22">
-        <v>44.06161593568896</v>
+        <v>44.061615935688963</v>
       </c>
       <c r="Z22">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:26">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2322,19 +2411,19 @@
         <v>2</v>
       </c>
       <c r="G23">
-        <v>55.05288570134961</v>
+        <v>55.052885701349609</v>
       </c>
       <c r="H23">
         <v>11.79905192563743</v>
       </c>
       <c r="I23">
-        <v>43.25383377571218</v>
+        <v>43.253833775712181</v>
       </c>
       <c r="J23">
         <v>0.1</v>
       </c>
       <c r="K23">
-        <v>43.25383377571218</v>
+        <v>43.253833775712181</v>
       </c>
       <c r="L23">
         <v>2</v>
@@ -2346,43 +2435,43 @@
         <v>1</v>
       </c>
       <c r="O23">
-        <v>55.05288570134961</v>
+        <v>55.052885701349609</v>
       </c>
       <c r="P23">
         <v>11.79905192563743</v>
       </c>
       <c r="Q23">
-        <v>1.540275098479072</v>
+        <v>1.5402750984790721</v>
       </c>
       <c r="R23">
-        <v>25.08004790899131</v>
+        <v>25.080047908991311</v>
       </c>
       <c r="S23">
-        <v>4.665873669199524</v>
+        <v>4.6658736691995237</v>
       </c>
       <c r="T23">
-        <v>4.665873669199524</v>
+        <v>4.6658736691995237</v>
       </c>
       <c r="U23">
-        <v>1.540275098479072</v>
+        <v>1.5402750984790721</v>
       </c>
       <c r="V23">
-        <v>25.08004790899131</v>
+        <v>25.080047908991311</v>
       </c>
       <c r="W23">
-        <v>56.36369940768942</v>
+        <v>56.363699407689417</v>
       </c>
       <c r="X23">
-        <v>99.6175331834016</v>
+        <v>99.617533183401605</v>
       </c>
       <c r="Y23">
-        <v>56.36369940768942</v>
+        <v>56.363699407689417</v>
       </c>
       <c r="Z23">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:26">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2402,19 +2491,19 @@
         <v>2</v>
       </c>
       <c r="G24">
-        <v>55.74131436014311</v>
+        <v>55.741314360143107</v>
       </c>
       <c r="H24">
-        <v>3.938225027492602</v>
+        <v>3.9382250274926021</v>
       </c>
       <c r="I24">
-        <v>51.80308933265051</v>
+        <v>51.803089332650508</v>
       </c>
       <c r="J24">
         <v>0.1</v>
       </c>
       <c r="K24">
-        <v>51.8030893326505</v>
+        <v>51.803089332650501</v>
       </c>
       <c r="L24">
         <v>2</v>
@@ -2426,43 +2515,43 @@
         <v>1</v>
       </c>
       <c r="O24">
-        <v>55.74131436014311</v>
+        <v>55.741314360143107</v>
       </c>
       <c r="P24">
-        <v>3.938225027492602</v>
+        <v>3.9382250274926021</v>
       </c>
       <c r="Q24">
         <v>2.649991480804569</v>
       </c>
       <c r="R24">
-        <v>41.36682656030377</v>
+        <v>41.366826560303771</v>
       </c>
       <c r="S24">
-        <v>14.15391806486807</v>
+        <v>14.153918064868069</v>
       </c>
       <c r="T24">
-        <v>14.15391806486807</v>
+        <v>14.153918064868069</v>
       </c>
       <c r="U24">
         <v>2.649991480804569</v>
       </c>
       <c r="V24">
-        <v>41.36682656030377</v>
+        <v>41.366826560303771</v>
       </c>
       <c r="W24">
-        <v>48.70847161828328</v>
+        <v>48.708471618283284</v>
       </c>
       <c r="X24">
         <v>100.5115609509338</v>
       </c>
       <c r="Y24">
-        <v>48.70847161828328</v>
+        <v>48.708471618283284</v>
       </c>
       <c r="Z24">
-        <v>0.9999999999999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:26">
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2482,19 +2571,19 @@
         <v>2</v>
       </c>
       <c r="G25">
-        <v>43.9897010807732</v>
+        <v>43.989701080773202</v>
       </c>
       <c r="H25">
-        <v>8.735624553509908</v>
+        <v>8.7356245535099077</v>
       </c>
       <c r="I25">
-        <v>35.25407652726329</v>
+        <v>35.254076527263287</v>
       </c>
       <c r="J25">
         <v>0.1</v>
       </c>
       <c r="K25">
-        <v>35.25407652726329</v>
+        <v>35.254076527263287</v>
       </c>
       <c r="L25">
         <v>2</v>
@@ -2506,43 +2595,43 @@
         <v>1</v>
       </c>
       <c r="O25">
-        <v>43.9897010807732</v>
+        <v>43.989701080773202</v>
       </c>
       <c r="P25">
-        <v>8.735624553509908</v>
+        <v>8.7356245535099077</v>
       </c>
       <c r="Q25">
-        <v>1.61654609902877</v>
+        <v>1.6165460990287699</v>
       </c>
       <c r="R25">
         <v>21.13253673270691</v>
       </c>
       <c r="S25">
-        <v>5.035667548589696</v>
+        <v>5.0356675485896956</v>
       </c>
       <c r="T25">
-        <v>5.035667548589696</v>
+        <v>5.0356675485896956</v>
       </c>
       <c r="U25">
-        <v>1.61654609902877</v>
+        <v>1.6165460990287699</v>
       </c>
       <c r="V25">
         <v>21.13253673270691</v>
       </c>
       <c r="W25">
-        <v>30.07412493248894</v>
+        <v>30.074124932488939</v>
       </c>
       <c r="X25">
-        <v>65.32820145975224</v>
+        <v>65.328201459752236</v>
       </c>
       <c r="Y25">
-        <v>30.07412493248894</v>
+        <v>30.074124932488939</v>
       </c>
       <c r="Z25">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:26">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2565,16 +2654,16 @@
         <v>36.9202094242629</v>
       </c>
       <c r="H26">
-        <v>6.384045331955994</v>
+        <v>6.3840453319559938</v>
       </c>
       <c r="I26">
-        <v>30.5361640923069</v>
+        <v>30.536164092306901</v>
       </c>
       <c r="J26">
         <v>0.1</v>
       </c>
       <c r="K26">
-        <v>32.43760155103497</v>
+        <v>32.437601551034973</v>
       </c>
       <c r="L26">
         <v>2</v>
@@ -2583,16 +2672,16 @@
         <v>0.1</v>
       </c>
       <c r="N26">
-        <v>0.9413816876769855</v>
+        <v>0.94138168767698549</v>
       </c>
       <c r="O26">
-        <v>47.92694522333416</v>
+        <v>47.926945223334158</v>
       </c>
       <c r="P26">
         <v>15.48934367229919</v>
       </c>
       <c r="Q26">
-        <v>1.129525594541997</v>
+        <v>1.1295255945419971</v>
       </c>
       <c r="R26">
         <v>14.94199143051592</v>
@@ -2604,25 +2693,25 @@
         <v>5.783199758851179</v>
       </c>
       <c r="U26">
-        <v>1.754957121005786</v>
+        <v>1.7549571210057859</v>
       </c>
       <c r="V26">
         <v>19.33243827616699</v>
       </c>
       <c r="W26">
-        <v>41.34072604360072</v>
+        <v>41.340726043600718</v>
       </c>
       <c r="X26">
         <v>71.87689013590763</v>
       </c>
       <c r="Y26">
-        <v>39.43928858487266</v>
+        <v>39.439288584872664</v>
       </c>
       <c r="Z26">
         <v>1.048211758552293</v>
       </c>
     </row>
-    <row r="27" spans="1:26">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2642,19 +2731,19 @@
         <v>2</v>
       </c>
       <c r="G27">
-        <v>52.45324451625417</v>
+        <v>52.453244516254173</v>
       </c>
       <c r="H27">
-        <v>5.520677276872613</v>
+        <v>5.5206772768726129</v>
       </c>
       <c r="I27">
-        <v>46.93256723938156</v>
+        <v>46.932567239381562</v>
       </c>
       <c r="J27">
         <v>0.1</v>
       </c>
       <c r="K27">
-        <v>47.45872743842106</v>
+        <v>47.458727438421057</v>
       </c>
       <c r="L27">
         <v>2</v>
@@ -2663,13 +2752,13 @@
         <v>0.1</v>
       </c>
       <c r="N27">
-        <v>0.9889133099971503</v>
+        <v>0.98891330999715032</v>
       </c>
       <c r="O27">
-        <v>68.66605101076185</v>
+        <v>68.666051010761848</v>
       </c>
       <c r="P27">
-        <v>21.2073235723408</v>
+        <v>21.207323572340801</v>
       </c>
       <c r="Q27">
         <v>1.17490834066975</v>
@@ -2678,31 +2767,31 @@
         <v>22.54206608999564</v>
       </c>
       <c r="S27">
-        <v>3.23784615142658</v>
+        <v>3.2378461514265799</v>
       </c>
       <c r="T27">
-        <v>9.501233614214849</v>
+        <v>9.5012336142148488</v>
       </c>
       <c r="U27">
         <v>2.251421644304056</v>
       </c>
       <c r="V27">
-        <v>34.50319492701298</v>
+        <v>34.503194927012977</v>
       </c>
       <c r="W27">
-        <v>72.3973810343419</v>
+        <v>72.397381034341905</v>
       </c>
       <c r="X27">
         <v>119.3299482737235</v>
       </c>
       <c r="Y27">
-        <v>71.8712208353024</v>
+        <v>71.871220835302395</v>
       </c>
       <c r="Z27">
-        <v>1.007320874655034</v>
-      </c>
-    </row>
-    <row r="28" spans="1:26">
+        <v>1.0073208746550339</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2725,16 +2814,16 @@
         <v>60.37943587519274</v>
       </c>
       <c r="H28">
-        <v>4.427691228189447</v>
+        <v>4.4276912281894472</v>
       </c>
       <c r="I28">
-        <v>55.9517446470033</v>
+        <v>55.951744647003302</v>
       </c>
       <c r="J28">
         <v>0.1</v>
       </c>
       <c r="K28">
-        <v>56.89043896120356</v>
+        <v>56.890438961203557</v>
       </c>
       <c r="L28">
         <v>2</v>
@@ -2743,10 +2832,10 @@
         <v>0.1</v>
       </c>
       <c r="N28">
-        <v>0.9834999635907116</v>
+        <v>0.98349996359071157</v>
       </c>
       <c r="O28">
-        <v>70.77689545693585</v>
+        <v>70.776895456935847</v>
       </c>
       <c r="P28">
         <v>13.88645649573229</v>
@@ -2755,34 +2844,34 @@
         <v>1.628618599765338</v>
       </c>
       <c r="R28">
-        <v>34.27469762742174</v>
+        <v>34.274697627421737</v>
       </c>
       <c r="S28">
-        <v>5.096829092338108</v>
+        <v>5.0968290923381083</v>
       </c>
       <c r="T28">
         <v>13.63677654186443</v>
       </c>
       <c r="U28">
-        <v>2.612770300576188</v>
+        <v>2.6127703005761882</v>
       </c>
       <c r="V28">
-        <v>44.38320450586821</v>
+        <v>44.383204505868207</v>
       </c>
       <c r="W28">
-        <v>59.15427957273477</v>
+        <v>59.154279572734772</v>
       </c>
       <c r="X28">
         <v>115.1060242197381</v>
       </c>
       <c r="Y28">
-        <v>58.2155852585345</v>
+        <v>58.215585258534503</v>
       </c>
       <c r="Z28">
-        <v>1.016124450351766</v>
-      </c>
-    </row>
-    <row r="29" spans="1:26">
+        <v>1.0161244503517659</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2802,19 +2891,19 @@
         <v>2</v>
       </c>
       <c r="G29">
-        <v>63.93058884285929</v>
+        <v>63.930588842859287</v>
       </c>
       <c r="H29">
-        <v>17.4744575447978</v>
+        <v>17.474457544797801</v>
       </c>
       <c r="I29">
-        <v>46.45613129806149</v>
+        <v>46.456131298061493</v>
       </c>
       <c r="J29">
         <v>0.1</v>
       </c>
       <c r="K29">
-        <v>46.45613129806149</v>
+        <v>46.456131298061493</v>
       </c>
       <c r="L29">
         <v>2</v>
@@ -2826,16 +2915,16 @@
         <v>1</v>
       </c>
       <c r="O29">
-        <v>63.93058884285929</v>
+        <v>63.930588842859287</v>
       </c>
       <c r="P29">
-        <v>17.4744575447978</v>
+        <v>17.474457544797801</v>
       </c>
       <c r="Q29">
         <v>1.29705769962761</v>
       </c>
       <c r="R29">
-        <v>23.79075159276572</v>
+        <v>23.790751592765719</v>
       </c>
       <c r="S29">
         <v>3.658516361893684</v>
@@ -2847,7 +2936,7 @@
         <v>1.29705769962761</v>
       </c>
       <c r="V29">
-        <v>23.79075159276572</v>
+        <v>23.790751592765719</v>
       </c>
       <c r="W29">
         <v>74.08413635519679</v>
@@ -2862,7 +2951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:26">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2882,19 +2971,19 @@
         <v>2</v>
       </c>
       <c r="G30">
-        <v>68.54345644236176</v>
+        <v>68.543456442361759</v>
       </c>
       <c r="H30">
         <v>11.45692856805281</v>
       </c>
       <c r="I30">
-        <v>57.08652787430895</v>
+        <v>57.086527874308949</v>
       </c>
       <c r="J30">
         <v>0.1</v>
       </c>
       <c r="K30">
-        <v>57.08652787430894</v>
+        <v>57.086527874308942</v>
       </c>
       <c r="L30">
         <v>2</v>
@@ -2906,7 +2995,7 @@
         <v>1</v>
       </c>
       <c r="O30">
-        <v>68.54345644236176</v>
+        <v>68.543456442361759</v>
       </c>
       <c r="P30">
         <v>11.45692856805281</v>
@@ -2915,34 +3004,34 @@
         <v>1.78887328263389</v>
       </c>
       <c r="R30">
-        <v>36.59153445787433</v>
+        <v>36.591534457874332</v>
       </c>
       <c r="S30">
-        <v>5.982707846629371</v>
+        <v>5.9827078466293706</v>
       </c>
       <c r="T30">
-        <v>5.982707846629371</v>
+        <v>5.9827078466293706</v>
       </c>
       <c r="U30">
         <v>1.78887328263389</v>
       </c>
       <c r="V30">
-        <v>36.59153445787433</v>
+        <v>36.591534457874332</v>
       </c>
       <c r="W30">
-        <v>51.35732297465618</v>
+        <v>51.357322974656178</v>
       </c>
       <c r="X30">
         <v>108.4438508489651</v>
       </c>
       <c r="Y30">
-        <v>51.35732297465619</v>
+        <v>51.357322974656192</v>
       </c>
       <c r="Z30">
-        <v>0.9999999999999999</v>
-      </c>
-    </row>
-    <row r="31" spans="1:26">
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2962,19 +3051,19 @@
         <v>2</v>
       </c>
       <c r="G31">
-        <v>52.59774878987108</v>
+        <v>52.597748789871083</v>
       </c>
       <c r="H31">
-        <v>8.509844409049855</v>
+        <v>8.5098444090498546</v>
       </c>
       <c r="I31">
-        <v>44.08790438082123</v>
+        <v>44.087904380821229</v>
       </c>
       <c r="J31">
         <v>0.1</v>
       </c>
       <c r="K31">
-        <v>50.50804706769814</v>
+        <v>50.508047067698143</v>
       </c>
       <c r="L31">
         <v>2</v>
@@ -2983,46 +3072,89 @@
         <v>0.1</v>
       </c>
       <c r="N31">
-        <v>0.8728887165589334</v>
+        <v>0.87288871655893341</v>
       </c>
       <c r="O31">
-        <v>64.22300364073698</v>
+        <v>64.223003640736977</v>
       </c>
       <c r="P31">
         <v>13.71495657303884</v>
       </c>
       <c r="Q31">
-        <v>1.543874500678238</v>
+        <v>1.5438745006782379</v>
       </c>
       <c r="R31">
-        <v>29.3338753366741</v>
+        <v>29.333875336674101</v>
       </c>
       <c r="S31">
         <v>4.682698286262748</v>
       </c>
       <c r="T31">
-        <v>6.180812040927051</v>
+        <v>6.1808120409270506</v>
       </c>
       <c r="U31">
-        <v>1.821449661045872</v>
+        <v>1.8214496610458719</v>
       </c>
       <c r="V31">
         <v>28.58765116640426</v>
       </c>
       <c r="W31">
-        <v>52.38696346903538</v>
+        <v>52.386963469035379</v>
       </c>
       <c r="X31">
-        <v>96.47486784985661</v>
+        <v>96.474867849856608</v>
       </c>
       <c r="Y31">
-        <v>45.96682078215847</v>
+        <v>45.966820782158472</v>
       </c>
       <c r="Z31">
-        <v>1.139669060805894</v>
+        <v>1.1396690608058939</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J32" s="2">
+        <f>AVERAGE(J2:J31)</f>
+        <v>9.8333333333333384E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>56</v>
+      </c>
+      <c r="B34" s="2">
+        <f>AVERAGE(N2:N31)</f>
+        <v>0.96570059643665829</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>57</v>
+      </c>
+      <c r="B35" s="2">
+        <f>AVERAGE(Z2:Z31)</f>
+        <v>1.0451349070363412</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>58</v>
+      </c>
+      <c r="B36" s="2">
+        <f>MIN(N2:N31)</f>
+        <v>0.79743825546683456</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>59</v>
+      </c>
+      <c r="B37" s="2">
+        <f>MAX(Z2:Z31)</f>
+        <v>1.3694988543922091</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>